--- a/Code/Results/Cases/Case_9_36/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_36/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9472969194634118</v>
+        <v>0.9096209747173702</v>
       </c>
       <c r="C2">
-        <v>0.191350614538365</v>
+        <v>0.2018538343584169</v>
       </c>
       <c r="D2">
-        <v>0.07174167406854082</v>
+        <v>0.07436635436678074</v>
       </c>
       <c r="E2">
-        <v>1.310014557901042</v>
+        <v>1.310399449541819</v>
       </c>
       <c r="F2">
-        <v>0.4194923562598589</v>
+        <v>0.4000977579657956</v>
       </c>
       <c r="G2">
-        <v>0.3149350745840493</v>
+        <v>0.2775667444547736</v>
       </c>
       <c r="H2">
-        <v>0.006552091328004273</v>
+        <v>0.006590338515324923</v>
       </c>
       <c r="I2">
-        <v>0.0008707614829841503</v>
+        <v>0.001128608698606648</v>
       </c>
       <c r="J2">
-        <v>0.2774218928179337</v>
+        <v>0.3040701160726584</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1395396343703723</v>
       </c>
       <c r="M2">
-        <v>1.018336723604193</v>
+        <v>0.05547670001431193</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.020608106963664</v>
       </c>
       <c r="P2">
-        <v>0.7134496304303859</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.19713817895358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.7089598833473332</v>
+      </c>
+      <c r="S2">
+        <v>1.13443144920052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8247571591638234</v>
+        <v>0.7962634578456402</v>
       </c>
       <c r="C3">
-        <v>0.1752522037298689</v>
+        <v>0.1803559574179587</v>
       </c>
       <c r="D3">
-        <v>0.06376150313591467</v>
+        <v>0.06567094969694409</v>
       </c>
       <c r="E3">
-        <v>1.142360885901937</v>
+        <v>1.143226818599274</v>
       </c>
       <c r="F3">
-        <v>0.3947485774987882</v>
+        <v>0.3784461696125732</v>
       </c>
       <c r="G3">
-        <v>0.2989478824098555</v>
+        <v>0.264893903932041</v>
       </c>
       <c r="H3">
-        <v>0.004456408392041644</v>
+        <v>0.004532238525498444</v>
       </c>
       <c r="I3">
-        <v>0.0005147041626614168</v>
+        <v>0.0007227196392056712</v>
       </c>
       <c r="J3">
-        <v>0.2736373062138355</v>
+        <v>0.2997669294228018</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1439775360563615</v>
       </c>
       <c r="M3">
-        <v>0.8906278863734371</v>
+        <v>0.05316154032372467</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8927323555450641</v>
       </c>
       <c r="P3">
-        <v>0.7363990518782071</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.155064401568083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.7285415381415596</v>
+      </c>
+      <c r="S3">
+        <v>1.101197056084104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7491139775540887</v>
+        <v>0.7260842156763943</v>
       </c>
       <c r="C4">
-        <v>0.1654856848144135</v>
+        <v>0.1673825142388949</v>
       </c>
       <c r="D4">
-        <v>0.05885886601821255</v>
+        <v>0.0603410409478613</v>
       </c>
       <c r="E4">
-        <v>1.039522740422044</v>
+        <v>1.040657761271987</v>
       </c>
       <c r="F4">
-        <v>0.3798994746100206</v>
+        <v>0.3654051284515702</v>
       </c>
       <c r="G4">
-        <v>0.2893905062344118</v>
+        <v>0.2573603656962646</v>
       </c>
       <c r="H4">
-        <v>0.003332236524582255</v>
+        <v>0.003422081311742931</v>
       </c>
       <c r="I4">
-        <v>0.0004346731068531895</v>
+        <v>0.0005904466108801465</v>
       </c>
       <c r="J4">
-        <v>0.27150312840552</v>
+        <v>0.2971727237171891</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1468025166593527</v>
       </c>
       <c r="M4">
-        <v>0.8120973242461673</v>
+        <v>0.05222052145361111</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8140820622528793</v>
       </c>
       <c r="P4">
-        <v>0.7510384226080991</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.13016969777793</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.7411431269373026</v>
+      </c>
+      <c r="S4">
+        <v>1.081450380609525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7174434245010275</v>
+        <v>0.6966141373617063</v>
       </c>
       <c r="C5">
-        <v>0.161893787403784</v>
+        <v>0.1625397624159746</v>
       </c>
       <c r="D5">
-        <v>0.05691043595589917</v>
+        <v>0.05822225395991154</v>
       </c>
       <c r="E5">
-        <v>0.9976156532721632</v>
+        <v>0.998854915113057</v>
       </c>
       <c r="F5">
-        <v>0.3735969775710615</v>
+        <v>0.3598258255453572</v>
       </c>
       <c r="G5">
-        <v>0.2852283738905896</v>
+        <v>0.2540349733031491</v>
       </c>
       <c r="H5">
-        <v>0.002911245596315393</v>
+        <v>0.003004705619441106</v>
       </c>
       <c r="I5">
-        <v>0.000499686983351566</v>
+        <v>0.0006414132105687642</v>
       </c>
       <c r="J5">
-        <v>0.2705091204488284</v>
+        <v>0.295954719037141</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1478350264864616</v>
       </c>
       <c r="M5">
-        <v>0.7801052310503422</v>
+        <v>0.05189551739794318</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7820381965593981</v>
       </c>
       <c r="P5">
-        <v>0.7571786580342525</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.119195726874665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.7464838422819824</v>
+      </c>
+      <c r="S5">
+        <v>1.072540256227626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7112696870116793</v>
+        <v>0.6908236380430992</v>
       </c>
       <c r="C6">
-        <v>0.1617422596177107</v>
+        <v>0.1622183075790531</v>
       </c>
       <c r="D6">
-        <v>0.05664881585562398</v>
+        <v>0.05793350772010797</v>
       </c>
       <c r="E6">
-        <v>0.9906431552581694</v>
+        <v>0.9918998756641599</v>
       </c>
       <c r="F6">
-        <v>0.3721483060871691</v>
+        <v>0.3585063911288913</v>
       </c>
       <c r="G6">
-        <v>0.2841395272757907</v>
+        <v>0.2531036092762164</v>
       </c>
       <c r="H6">
-        <v>0.002842504922627054</v>
+        <v>0.002936467634940154</v>
       </c>
       <c r="I6">
-        <v>0.000598793554137167</v>
+        <v>0.0007545145197980219</v>
       </c>
       <c r="J6">
-        <v>0.2701387528643693</v>
+        <v>0.2955426633139879</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1478330667546039</v>
       </c>
       <c r="M6">
-        <v>0.7748447498062774</v>
+        <v>0.05177292703672709</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7767695027361725</v>
       </c>
       <c r="P6">
-        <v>0.7582573486078292</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.116100076757988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.7474588684660155</v>
+      </c>
+      <c r="S6">
+        <v>1.069825494382215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7461968427984971</v>
+        <v>0.7228059919978307</v>
       </c>
       <c r="C7">
-        <v>0.1666509614870648</v>
+        <v>0.1684318562469684</v>
       </c>
       <c r="D7">
-        <v>0.05900245651825031</v>
+        <v>0.06059344611183803</v>
       </c>
       <c r="E7">
-        <v>1.038918498954288</v>
+        <v>1.040027210929836</v>
       </c>
       <c r="F7">
-        <v>0.3787022482858973</v>
+        <v>0.3635913995780555</v>
       </c>
       <c r="G7">
-        <v>0.2882376537147735</v>
+        <v>0.2587340809037357</v>
       </c>
       <c r="H7">
-        <v>0.003323331410086006</v>
+        <v>0.003411010278877247</v>
       </c>
       <c r="I7">
-        <v>0.0006563136227022426</v>
+        <v>0.0008542992210776035</v>
       </c>
       <c r="J7">
-        <v>0.2709219393042872</v>
+        <v>0.2929567387668115</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1461943819194111</v>
       </c>
       <c r="M7">
-        <v>0.8118136542194065</v>
+        <v>0.05192045067056306</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.813106720802466</v>
       </c>
       <c r="P7">
-        <v>0.7512716175522378</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.126507181342419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.7415658623018935</v>
+      </c>
+      <c r="S7">
+        <v>1.075892817090221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.901798333266413</v>
+        <v>0.8659094916265815</v>
       </c>
       <c r="C8">
-        <v>0.187399541431887</v>
+        <v>0.1954924174670936</v>
       </c>
       <c r="D8">
-        <v>0.0692176510103053</v>
+        <v>0.07196321741148637</v>
       </c>
       <c r="E8">
-        <v>1.252124898864452</v>
+        <v>1.252586423248445</v>
       </c>
       <c r="F8">
-        <v>0.4094136835275322</v>
+        <v>0.3889730073740338</v>
       </c>
       <c r="G8">
-        <v>0.3079149251379505</v>
+        <v>0.2800254862487179</v>
       </c>
       <c r="H8">
-        <v>0.005788920517445617</v>
+        <v>0.005832997517503213</v>
       </c>
       <c r="I8">
-        <v>0.0009825567105785638</v>
+        <v>0.00127749107032038</v>
       </c>
       <c r="J8">
-        <v>0.2753284414938832</v>
+        <v>0.2900251790516961</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.140032231471789</v>
       </c>
       <c r="M8">
-        <v>0.9745197341026142</v>
+        <v>0.05393972528564817</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9744153721175337</v>
       </c>
       <c r="P8">
-        <v>0.7214979873134979</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.177784432675921</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.7164394543898354</v>
+      </c>
+      <c r="S8">
+        <v>1.111613134630858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.208334221289789</v>
+        <v>1.148007190757454</v>
       </c>
       <c r="C9">
-        <v>0.2269352634244655</v>
+        <v>0.2488053922159565</v>
       </c>
       <c r="D9">
-        <v>0.08894137115203904</v>
+        <v>0.0936456829156711</v>
       </c>
       <c r="E9">
-        <v>1.67176541337264</v>
+        <v>1.670810262457096</v>
       </c>
       <c r="F9">
-        <v>0.4746009845026578</v>
+        <v>0.4452731738508149</v>
       </c>
       <c r="G9">
-        <v>0.3507243471070183</v>
+        <v>0.3167766066103965</v>
       </c>
       <c r="H9">
-        <v>0.01205693876503477</v>
+        <v>0.01194328331937938</v>
       </c>
       <c r="I9">
-        <v>0.002476399137287366</v>
+        <v>0.002703867307954688</v>
       </c>
       <c r="J9">
-        <v>0.2865720684786481</v>
+        <v>0.2984898876756787</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1300468323888264</v>
       </c>
       <c r="M9">
-        <v>1.292646053841906</v>
+        <v>0.06249260899968689</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.292130963658195</v>
       </c>
       <c r="P9">
-        <v>0.6672773280141548</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.292686224283585</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.6709518816282802</v>
+      </c>
+      <c r="S9">
+        <v>1.200843673457626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.425609493757605</v>
+        <v>1.344650279942215</v>
       </c>
       <c r="C10">
-        <v>0.2560082694261183</v>
+        <v>0.2868261523951503</v>
       </c>
       <c r="D10">
-        <v>0.1045604203306709</v>
+        <v>0.1114177111063412</v>
       </c>
       <c r="E10">
-        <v>1.881840974345252</v>
+        <v>1.87956108401896</v>
       </c>
       <c r="F10">
-        <v>0.5182617344622358</v>
+        <v>0.4786780271783542</v>
       </c>
       <c r="G10">
-        <v>0.3775909669692084</v>
+        <v>0.3546376242792917</v>
       </c>
       <c r="H10">
-        <v>0.01721653368938902</v>
+        <v>0.01691400948013166</v>
       </c>
       <c r="I10">
-        <v>0.004477988256335053</v>
+        <v>0.004528103539306549</v>
       </c>
       <c r="J10">
-        <v>0.2928618747608311</v>
+        <v>0.2830005872596217</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1216574459126427</v>
       </c>
       <c r="M10">
-        <v>1.520200495994487</v>
+        <v>0.06937005989230371</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.514992208467362</v>
       </c>
       <c r="P10">
-        <v>0.6322550788135111</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.363216974607667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.6441252459272704</v>
+      </c>
+      <c r="S10">
+        <v>1.241382805926094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.476917557363265</v>
+        <v>1.390051283633255</v>
       </c>
       <c r="C11">
-        <v>0.2594133358956867</v>
+        <v>0.2874983320488269</v>
       </c>
       <c r="D11">
-        <v>0.1211421919419138</v>
+        <v>0.1301064454382015</v>
       </c>
       <c r="E11">
-        <v>1.206010616070103</v>
+        <v>1.203776635357229</v>
       </c>
       <c r="F11">
-        <v>0.4866310338069511</v>
+        <v>0.4412886222406271</v>
       </c>
       <c r="G11">
-        <v>0.3400208402020723</v>
+        <v>0.3506669706760306</v>
       </c>
       <c r="H11">
-        <v>0.03311791320308544</v>
+        <v>0.03277351479044199</v>
       </c>
       <c r="I11">
-        <v>0.005451425054813441</v>
+        <v>0.005504667390739293</v>
       </c>
       <c r="J11">
-        <v>0.271275433178559</v>
+        <v>0.2304813424184857</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1103448818976052</v>
       </c>
       <c r="M11">
-        <v>1.569762805734371</v>
+        <v>0.06321024153559662</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.554973692913165</v>
       </c>
       <c r="P11">
-        <v>0.6351315373713291</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.238490481677246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.657561926180648</v>
+      </c>
+      <c r="S11">
+        <v>1.103013167201354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.478090737275238</v>
+        <v>1.392266415351145</v>
       </c>
       <c r="C12">
-        <v>0.2544105496687052</v>
+        <v>0.278878643951515</v>
       </c>
       <c r="D12">
-        <v>0.132073661840721</v>
+        <v>0.1419705796763964</v>
       </c>
       <c r="E12">
-        <v>0.7216761441799662</v>
+        <v>0.7198423408125052</v>
       </c>
       <c r="F12">
-        <v>0.452812498530605</v>
+        <v>0.4073319860422941</v>
       </c>
       <c r="G12">
-        <v>0.3055846903093737</v>
+        <v>0.3312301939770208</v>
       </c>
       <c r="H12">
-        <v>0.06962630404574099</v>
+        <v>0.0692951676697362</v>
       </c>
       <c r="I12">
-        <v>0.005478095863029608</v>
+        <v>0.00551015224516771</v>
       </c>
       <c r="J12">
-        <v>0.2529322209366356</v>
+        <v>0.2055582300738408</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1039252676474707</v>
       </c>
       <c r="M12">
-        <v>1.563040113894743</v>
+        <v>0.0575060556427367</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.543781420430804</v>
       </c>
       <c r="P12">
-        <v>0.6477005183121207</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.127107037097431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.6766064469096165</v>
+      </c>
+      <c r="S12">
+        <v>0.9945082078759953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.436832795948789</v>
+        <v>1.358802928293755</v>
       </c>
       <c r="C13">
-        <v>0.244662227198134</v>
+        <v>0.2653909147507676</v>
       </c>
       <c r="D13">
-        <v>0.139432834359269</v>
+        <v>0.1489568013344496</v>
       </c>
       <c r="E13">
-        <v>0.3564587098994139</v>
+        <v>0.3551784171204915</v>
       </c>
       <c r="F13">
-        <v>0.4136170019935506</v>
+        <v>0.3734820530418119</v>
       </c>
       <c r="G13">
-        <v>0.2698689283104798</v>
+        <v>0.2917966582352562</v>
       </c>
       <c r="H13">
-        <v>0.1233603973224433</v>
+        <v>0.1230824120285803</v>
       </c>
       <c r="I13">
-        <v>0.005097230797797891</v>
+        <v>0.005174069574761297</v>
       </c>
       <c r="J13">
-        <v>0.235104967228942</v>
+        <v>0.1982522178711115</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09999079998007687</v>
       </c>
       <c r="M13">
-        <v>1.512981038017614</v>
+        <v>0.05168225236742074</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.494753825552635</v>
       </c>
       <c r="P13">
-        <v>0.6680101917092927</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.014021395780631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.6988604593046617</v>
+      </c>
+      <c r="S13">
+        <v>0.8998565003613379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.388193452708379</v>
+        <v>1.318549610421456</v>
       </c>
       <c r="C14">
-        <v>0.2361611700255253</v>
+        <v>0.254241424624567</v>
       </c>
       <c r="D14">
-        <v>0.1430226899410343</v>
+        <v>0.1516629605239785</v>
       </c>
       <c r="E14">
-        <v>0.1728472855008647</v>
+        <v>0.1719430645196027</v>
       </c>
       <c r="F14">
-        <v>0.3837610165526613</v>
+        <v>0.3494833775912412</v>
       </c>
       <c r="G14">
-        <v>0.2444033957441505</v>
+        <v>0.2568549783289811</v>
       </c>
       <c r="H14">
-        <v>0.1714384425699933</v>
+        <v>0.1712092949295112</v>
       </c>
       <c r="I14">
-        <v>0.004741249603230635</v>
+        <v>0.004889004700379118</v>
       </c>
       <c r="J14">
-        <v>0.22285930214084</v>
+        <v>0.1991151028392082</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09811664126918629</v>
       </c>
       <c r="M14">
-        <v>1.45867096396799</v>
+        <v>0.04757824374600794</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.443487575883722</v>
       </c>
       <c r="P14">
-        <v>0.6860094433285653</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9343341204161675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7157344140059649</v>
+      </c>
+      <c r="S14">
+        <v>0.8386447509273864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.366411776070066</v>
+        <v>1.300133592642766</v>
       </c>
       <c r="C15">
-        <v>0.2335296139169287</v>
+        <v>0.250929333406404</v>
       </c>
       <c r="D15">
-        <v>0.1431338979352859</v>
+        <v>0.1512945685425819</v>
       </c>
       <c r="E15">
-        <v>0.1371319791060905</v>
+        <v>0.136335146490385</v>
       </c>
       <c r="F15">
-        <v>0.3749796750864576</v>
+        <v>0.3430625229007305</v>
       </c>
       <c r="G15">
-        <v>0.2374842183647274</v>
+        <v>0.2449035034469347</v>
       </c>
       <c r="H15">
-        <v>0.1835327592320368</v>
+        <v>0.1833235585958022</v>
       </c>
       <c r="I15">
-        <v>0.004672624222703092</v>
+        <v>0.004872401798608372</v>
       </c>
       <c r="J15">
-        <v>0.2197893855738684</v>
+        <v>0.2018425953696799</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09795808116665228</v>
       </c>
       <c r="M15">
-        <v>1.436383942619329</v>
+        <v>0.04645004627195348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.422930205101096</v>
       </c>
       <c r="P15">
-        <v>0.691830921617516</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9132062326818158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7202747610059035</v>
+      </c>
+      <c r="S15">
+        <v>0.8245123266414822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.280889025102965</v>
+        <v>1.225969808194861</v>
       </c>
       <c r="C16">
-        <v>0.2239970697816318</v>
+        <v>0.240355282774118</v>
       </c>
       <c r="D16">
-        <v>0.1347025243708231</v>
+        <v>0.1406767385177687</v>
       </c>
       <c r="E16">
-        <v>0.1344945661657277</v>
+        <v>0.1339536498306977</v>
       </c>
       <c r="F16">
-        <v>0.3639230312452213</v>
+        <v>0.3399639126957652</v>
       </c>
       <c r="G16">
-        <v>0.2330010938263243</v>
+        <v>0.2180859097000507</v>
       </c>
       <c r="H16">
-        <v>0.1692719030750141</v>
+        <v>0.169142275481633</v>
       </c>
       <c r="I16">
-        <v>0.004003493627873667</v>
+        <v>0.00433621166306164</v>
       </c>
       <c r="J16">
-        <v>0.2204247915273712</v>
+        <v>0.2267907461416527</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1014963816891896</v>
       </c>
       <c r="M16">
-        <v>1.350075987759794</v>
+        <v>0.04583357855115544</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.344788957405569</v>
       </c>
       <c r="P16">
-        <v>0.7005917593645918</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9048679170840472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7205897352093658</v>
+      </c>
+      <c r="S16">
+        <v>0.8376672232384834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.24096060021111</v>
+        <v>1.189585200323108</v>
       </c>
       <c r="C17">
-        <v>0.2212017741181427</v>
+        <v>0.2378598705993511</v>
       </c>
       <c r="D17">
-        <v>0.1263622515914733</v>
+        <v>0.1314219657432716</v>
       </c>
       <c r="E17">
-        <v>0.2165823977045704</v>
+        <v>0.2161081060548184</v>
       </c>
       <c r="F17">
-        <v>0.3712028140623929</v>
+        <v>0.3496543364099409</v>
       </c>
       <c r="G17">
-        <v>0.2429009911410347</v>
+        <v>0.2181164511186751</v>
       </c>
       <c r="H17">
-        <v>0.1309311260535964</v>
+        <v>0.1308344067164029</v>
       </c>
       <c r="I17">
-        <v>0.003706104769692686</v>
+        <v>0.00409893365066516</v>
       </c>
       <c r="J17">
-        <v>0.2273843326919263</v>
+        <v>0.2447339673442883</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1054240922186036</v>
       </c>
       <c r="M17">
-        <v>1.312620297237061</v>
+        <v>0.04731493432222678</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.310895554937218</v>
       </c>
       <c r="P17">
-        <v>0.6979898341850017</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9403327374454449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7134339030050469</v>
+      </c>
+      <c r="S17">
+        <v>0.8787067387361986</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.237728627185305</v>
+        <v>1.184672636814469</v>
       </c>
       <c r="C18">
-        <v>0.2230229577200333</v>
+        <v>0.2415352968001514</v>
       </c>
       <c r="D18">
-        <v>0.1171638916688664</v>
+        <v>0.1219524149628342</v>
       </c>
       <c r="E18">
-        <v>0.4435790147952687</v>
+        <v>0.443029677992044</v>
       </c>
       <c r="F18">
-        <v>0.3961681143600941</v>
+        <v>0.373803847652141</v>
       </c>
       <c r="G18">
-        <v>0.267738876325339</v>
+        <v>0.2368206206179764</v>
       </c>
       <c r="H18">
-        <v>0.07863354237232301</v>
+        <v>0.07854127467432903</v>
       </c>
       <c r="I18">
-        <v>0.003412072728246507</v>
+        <v>0.003773126688687789</v>
       </c>
       <c r="J18">
-        <v>0.2411731190936379</v>
+        <v>0.2626211121262543</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1106873917716751</v>
       </c>
       <c r="M18">
-        <v>1.312766597156923</v>
+        <v>0.0511505395652847</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.312703205790825</v>
       </c>
       <c r="P18">
-        <v>0.6860824357956261</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.021821022079607</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.6985578941847521</v>
+      </c>
+      <c r="S18">
+        <v>0.9561659778915867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.259635247453588</v>
+        <v>1.201362368265762</v>
       </c>
       <c r="C19">
-        <v>0.2310385911565334</v>
+        <v>0.2530237429260183</v>
       </c>
       <c r="D19">
-        <v>0.1085691090114125</v>
+        <v>0.113463278043497</v>
       </c>
       <c r="E19">
-        <v>0.8673574143435587</v>
+        <v>0.8665649865714897</v>
       </c>
       <c r="F19">
-        <v>0.4324713589732028</v>
+        <v>0.4072086531681265</v>
       </c>
       <c r="G19">
-        <v>0.3024298840719695</v>
+        <v>0.266893303431857</v>
       </c>
       <c r="H19">
-        <v>0.03535056517625179</v>
+        <v>0.03523676821728827</v>
       </c>
       <c r="I19">
-        <v>0.003661310063924006</v>
+        <v>0.004033578587417708</v>
       </c>
       <c r="J19">
-        <v>0.2590307128030105</v>
+        <v>0.2805013867604345</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1164106243502623</v>
       </c>
       <c r="M19">
-        <v>1.343789695013669</v>
+        <v>0.05638827330277074</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.34438475512971</v>
       </c>
       <c r="P19">
-        <v>0.6706854810053002</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.13277120660149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.6810792163321722</v>
+      </c>
+      <c r="S19">
+        <v>1.056758123451871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.360488519965685</v>
+        <v>1.286999571672709</v>
       </c>
       <c r="C20">
-        <v>0.2522165579978974</v>
+        <v>0.2818794442431454</v>
       </c>
       <c r="D20">
-        <v>0.1010461237494198</v>
+        <v>0.1069351845652093</v>
       </c>
       <c r="E20">
-        <v>1.822298274056322</v>
+        <v>1.820495404833096</v>
       </c>
       <c r="F20">
-        <v>0.5029417312425437</v>
+        <v>0.4686136859353169</v>
       </c>
       <c r="G20">
-        <v>0.3667829210044431</v>
+        <v>0.3319081096270367</v>
       </c>
       <c r="H20">
-        <v>0.01573199511009316</v>
+        <v>0.01549877628535334</v>
       </c>
       <c r="I20">
-        <v>0.004588541831545001</v>
+        <v>0.004869418758651101</v>
       </c>
       <c r="J20">
-        <v>0.2892787437425284</v>
+        <v>0.2971598279461602</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1231841456452472</v>
       </c>
       <c r="M20">
-        <v>1.460660798799779</v>
+        <v>0.06678022387882976</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.45929104121285</v>
       </c>
       <c r="P20">
-        <v>0.6421810164692907</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.332696676124698</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.6516022462684568</v>
+      </c>
+      <c r="S20">
+        <v>1.226771123554386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.535952917358969</v>
+        <v>1.43595913406233</v>
       </c>
       <c r="C21">
-        <v>0.2761983123258318</v>
+        <v>0.3095809041836191</v>
       </c>
       <c r="D21">
-        <v>0.1113766867510009</v>
+        <v>0.1211876094906046</v>
       </c>
       <c r="E21">
-        <v>2.139084489299108</v>
+        <v>2.135464637332575</v>
       </c>
       <c r="F21">
-        <v>0.5470129507035182</v>
+        <v>0.4912762909785542</v>
       </c>
       <c r="G21">
-        <v>0.3975855559903891</v>
+        <v>0.4217662274304814</v>
       </c>
       <c r="H21">
-        <v>0.02088380776117704</v>
+        <v>0.02038870462639308</v>
       </c>
       <c r="I21">
-        <v>0.006364704077823191</v>
+        <v>0.006346100512276465</v>
       </c>
       <c r="J21">
-        <v>0.2991863593631905</v>
+        <v>0.2346162395458293</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.116683952805122</v>
       </c>
       <c r="M21">
-        <v>1.644868620845415</v>
+        <v>0.07203807205126367</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.62608213839539</v>
       </c>
       <c r="P21">
-        <v>0.6136576185254548</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.419054987300143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.6328589273702079</v>
+      </c>
+      <c r="S21">
+        <v>1.24818008066714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.651217083769581</v>
+        <v>1.533137608779242</v>
       </c>
       <c r="C22">
-        <v>0.2896910173296021</v>
+        <v>0.3247577193105968</v>
       </c>
       <c r="D22">
-        <v>0.1184285622189662</v>
+        <v>0.1310437369009776</v>
       </c>
       <c r="E22">
-        <v>2.295936357276389</v>
+        <v>2.291085359700162</v>
       </c>
       <c r="F22">
-        <v>0.5748019490534304</v>
+        <v>0.504012483180496</v>
       </c>
       <c r="G22">
-        <v>0.4166388539632209</v>
+        <v>0.4882066394789604</v>
       </c>
       <c r="H22">
-        <v>0.02425094788773197</v>
+        <v>0.0235646385715329</v>
       </c>
       <c r="I22">
-        <v>0.0074143432129814</v>
+        <v>0.007086896844401558</v>
       </c>
       <c r="J22">
-        <v>0.3052084574850795</v>
+        <v>0.1991789485308857</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1124832209346494</v>
       </c>
       <c r="M22">
-        <v>1.762041010784742</v>
+        <v>0.07555225311823932</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.73044550499381</v>
       </c>
       <c r="P22">
-        <v>0.5960932218408068</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.472251563457576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.6224415685968339</v>
+      </c>
+      <c r="S22">
+        <v>1.255897575431931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.592762323201811</v>
+        <v>1.485488744517397</v>
       </c>
       <c r="C23">
-        <v>0.2809582577598917</v>
+        <v>0.3155201762886435</v>
       </c>
       <c r="D23">
-        <v>0.1144544921979929</v>
+        <v>0.125239112078475</v>
       </c>
       <c r="E23">
-        <v>2.212207906199424</v>
+        <v>2.208087660439276</v>
       </c>
       <c r="F23">
-        <v>0.5612330024668069</v>
+        <v>0.5001552904334119</v>
       </c>
       <c r="G23">
-        <v>0.407720060028538</v>
+        <v>0.4459416821034523</v>
       </c>
       <c r="H23">
-        <v>0.02243641658062034</v>
+        <v>0.02186355061563572</v>
       </c>
       <c r="I23">
-        <v>0.00656855323679828</v>
+        <v>0.006355111876560571</v>
       </c>
       <c r="J23">
-        <v>0.3026286630496173</v>
+        <v>0.2236025430462405</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1152634675919622</v>
       </c>
       <c r="M23">
-        <v>1.699317112493418</v>
+        <v>0.07438809590401618</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.676512426821802</v>
       </c>
       <c r="P23">
-        <v>0.6050499475841384</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.447838923624005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.6267082577263601</v>
+      </c>
+      <c r="S23">
+        <v>1.2607710114832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.366141418068452</v>
+        <v>1.29209358978801</v>
       </c>
       <c r="C24">
-        <v>0.2506369568945104</v>
+        <v>0.280376763336136</v>
       </c>
       <c r="D24">
-        <v>0.09976043046625449</v>
+        <v>0.105615474385381</v>
       </c>
       <c r="E24">
-        <v>1.896371936550494</v>
+        <v>1.894517089343267</v>
       </c>
       <c r="F24">
-        <v>0.5088563868671514</v>
+        <v>0.4742155298233115</v>
       </c>
       <c r="G24">
-        <v>0.3727734817945674</v>
+        <v>0.3369599162782748</v>
       </c>
       <c r="H24">
-        <v>0.01607301380743453</v>
+        <v>0.01583490737472038</v>
       </c>
       <c r="I24">
-        <v>0.004163970531652517</v>
+        <v>0.004342393190698068</v>
       </c>
       <c r="J24">
-        <v>0.2923364154732013</v>
+        <v>0.3005767814599594</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1244939192724068</v>
       </c>
       <c r="M24">
-        <v>1.462292634896301</v>
+        <v>0.0679896653961336</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.461083960054907</v>
       </c>
       <c r="P24">
-        <v>0.640821027633276</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.351800005751443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.6495752455993724</v>
+      </c>
+      <c r="S24">
+        <v>1.244593745662371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.121127059834663</v>
+        <v>1.068372592744026</v>
       </c>
       <c r="C25">
-        <v>0.2183747979042749</v>
+        <v>0.2369759720786533</v>
       </c>
       <c r="D25">
-        <v>0.08391707176237873</v>
+        <v>0.08793000058989975</v>
       </c>
       <c r="E25">
-        <v>1.557909544413633</v>
+        <v>1.557416689537959</v>
       </c>
       <c r="F25">
-        <v>0.4546002404910183</v>
+        <v>0.4287771173238113</v>
       </c>
       <c r="G25">
-        <v>0.3368904637942549</v>
+        <v>0.3010971365330093</v>
       </c>
       <c r="H25">
-        <v>0.01018037007983807</v>
+        <v>0.0101244324033679</v>
       </c>
       <c r="I25">
-        <v>0.002313415847442712</v>
+        <v>0.002669554564608489</v>
       </c>
       <c r="J25">
-        <v>0.2823309941390661</v>
+        <v>0.3001520230901917</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1322003847202495</v>
       </c>
       <c r="M25">
-        <v>1.206885013133984</v>
+        <v>0.05936762111040039</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.207520877602207</v>
       </c>
       <c r="P25">
-        <v>0.6818703791355176</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.254320213865313</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6831409010193532</v>
+      </c>
+      <c r="S25">
+        <v>1.172902133196345</v>
       </c>
     </row>
   </sheetData>
